--- a/src/test/resources/sample-files/xls_sample_test1.xlsx
+++ b/src/test/resources/sample-files/xls_sample_test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhizhnyakov\develop\IdeaProjects\PoiObjectMapper\src\test\resources\sample-files\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -100,12 +100,25 @@
   </si>
   <si>
     <t>14-02-1990</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>WOW-MAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -509,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -517,9 +530,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -545,109 +558,114 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1.8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="F5" s="0">
+        <v>1.78</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1.78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample-files/xls_sample_test1.xlsx
+++ b/src/test/resources/sample-files/xls_sample_test1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>WOW-MAN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WOW-MAN2</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>WOW-MAN3</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -560,17 +572,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I2" s="0"/>
+      <c r="J2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -666,6 +690,33 @@
       <c r="D8" s="0"/>
       <c r="E8" t="s" s="0">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I9" s="0"/>
+      <c r="J9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample-files/xls_sample_test1.xlsx
+++ b/src/test/resources/sample-files/xls_sample_test1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>WOW-MAN3</t>
+  </si>
+  <si>
+    <t>WOW-MAN1</t>
+  </si>
+  <si>
+    <t>WOW-MAN0</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -580,7 +586,7 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>29</v>
@@ -716,6 +722,33 @@
         <v>28</v>
       </c>
       <c r="K9" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I10" s="0"/>
+      <c r="J10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s" s="0">
         <v>33</v>
       </c>
     </row>
